--- a/Link.xlsx
+++ b/Link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7399deae6cf42098/AnkiDecks/Programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC1048B511D974025ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97684BEA-6284-4C6C-9DEC-330493D0B2AD}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_F25DC773A252ABDACC1048B511D974025ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58662DBD-BA5F-4BF4-AF00-A5036238F1E7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Deck</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>https://ankiweb.net/shared/info/1728803758</t>
+  </si>
+  <si>
+    <t>OOP\OOP_Principles.apkg</t>
+  </si>
+  <si>
+    <t>https://ankiweb.net/shared/info/1646550400</t>
   </si>
 </sst>
 </file>
@@ -107,6 +113,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,13 +421,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{2010BF0D-9904-45FA-B82F-CE11E2F6044F}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{D3152781-72A1-4B5C-AB00-FA3BC6A6A246}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>